--- a/src/habitatData/habitatData.xlsx
+++ b/src/habitatData/habitatData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k1220794\eclipse-workspace\Cascadia\src\habitatData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56057C1E-14D1-400E-B302-7D7C8245AAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12802DD6-3033-410C-A0FD-1420675E0192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{E768446F-3D50-4C1E-BD02-52251CA797BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E768446F-3D50-4C1E-BD02-52251CA797BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,108 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="9">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="9">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -132,6 +234,110 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90D63292-070B-4E16-AAAA-50642D658771}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +655,7 @@
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -501,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -526,8 +732,11 @@
       <c r="H3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -552,8 +761,11 @@
       <c r="H4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -579,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -604,8 +816,11 @@
       <c r="H6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -630,8 +845,11 @@
       <c r="H7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -656,8 +874,11 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -683,7 +904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -708,8 +929,11 @@
       <c r="H10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -735,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -760,8 +984,11 @@
       <c r="H12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -786,8 +1013,11 @@
       <c r="H13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -812,8 +1042,11 @@
       <c r="H14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -839,30 +1072,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -966,32 +1199,6 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
         <v>1</v>
       </c>
     </row>
